--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1201.777349666667</v>
+        <v>1.400677</v>
       </c>
       <c r="H2">
-        <v>3605.332049</v>
+        <v>4.202031</v>
       </c>
       <c r="I2">
-        <v>0.8719100374736847</v>
+        <v>0.009106128952548741</v>
       </c>
       <c r="J2">
-        <v>0.8719100374736846</v>
+        <v>0.009106128952548741</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N2">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q2">
-        <v>169519.5446582938</v>
+        <v>0.05501672499066666</v>
       </c>
       <c r="R2">
-        <v>1525675.901924644</v>
+        <v>0.495150524916</v>
       </c>
       <c r="S2">
-        <v>0.860349387325115</v>
+        <v>0.006768153419320765</v>
       </c>
       <c r="T2">
-        <v>0.8603493873251149</v>
+        <v>0.006768153419320766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1201.777349666667</v>
+        <v>1.400677</v>
       </c>
       <c r="H3">
-        <v>3605.332049</v>
+        <v>4.202031</v>
       </c>
       <c r="I3">
-        <v>0.8719100374736847</v>
+        <v>0.009106128952548741</v>
       </c>
       <c r="J3">
-        <v>0.8719100374736846</v>
+        <v>0.009106128952548741</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N3">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q3">
-        <v>2277.860806331697</v>
+        <v>0.01900485242833333</v>
       </c>
       <c r="R3">
-        <v>20500.74725698527</v>
+        <v>0.171043671855</v>
       </c>
       <c r="S3">
-        <v>0.01156065014856967</v>
+        <v>0.002337975533227976</v>
       </c>
       <c r="T3">
-        <v>0.01156065014856967</v>
+        <v>0.002337975533227976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.974902666666666</v>
+        <v>6.974902666666668</v>
       </c>
       <c r="H4">
         <v>20.924708</v>
       </c>
       <c r="I4">
-        <v>0.005060411270985794</v>
+        <v>0.04534547444852937</v>
       </c>
       <c r="J4">
-        <v>0.005060411270985794</v>
+        <v>0.04534547444852936</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N4">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q4">
-        <v>983.8613819916029</v>
+        <v>0.2739648768764444</v>
       </c>
       <c r="R4">
-        <v>8854.752437924426</v>
+        <v>2.465683891888</v>
       </c>
       <c r="S4">
-        <v>0.004993315307185158</v>
+        <v>0.03370313879133414</v>
       </c>
       <c r="T4">
-        <v>0.004993315307185157</v>
+        <v>0.03370313879133414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.974902666666666</v>
+        <v>6.974902666666668</v>
       </c>
       <c r="H5">
         <v>20.924708</v>
       </c>
       <c r="I5">
-        <v>0.005060411270985794</v>
+        <v>0.04534547444852937</v>
       </c>
       <c r="J5">
-        <v>0.005060411270985794</v>
+        <v>0.04534547444852936</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N5">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q5">
-        <v>13.22030026342667</v>
+        <v>0.09463780434888891</v>
       </c>
       <c r="R5">
-        <v>118.98270237084</v>
+        <v>0.8517402391400001</v>
       </c>
       <c r="S5">
-        <v>6.709596380063607E-05</v>
+        <v>0.01164233565719522</v>
       </c>
       <c r="T5">
-        <v>6.709596380063604E-05</v>
+        <v>0.01164233565719522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.145949666666666</v>
+        <v>1.381819666666667</v>
       </c>
       <c r="H6">
-        <v>3.437848999999999</v>
+        <v>4.145459</v>
       </c>
       <c r="I6">
-        <v>0.0008314060978794657</v>
+        <v>0.00898353301570211</v>
       </c>
       <c r="J6">
-        <v>0.0008314060978794656</v>
+        <v>0.00898353301570211</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N6">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q6">
-        <v>161.6446388746954</v>
+        <v>0.05427603408044444</v>
       </c>
       <c r="R6">
-        <v>1454.801749872259</v>
+        <v>0.488484306724</v>
       </c>
       <c r="S6">
-        <v>0.0008203824892319256</v>
+        <v>0.006677033678595908</v>
       </c>
       <c r="T6">
-        <v>0.0008203824892319255</v>
+        <v>0.006677033678595908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.145949666666666</v>
+        <v>1.381819666666667</v>
       </c>
       <c r="H7">
-        <v>3.437848999999999</v>
+        <v>4.145459</v>
       </c>
       <c r="I7">
-        <v>0.0008314060978794657</v>
+        <v>0.00898353301570211</v>
       </c>
       <c r="J7">
-        <v>0.0008314060978794656</v>
+        <v>0.00898353301570211</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N7">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q7">
-        <v>2.172044457696666</v>
+        <v>0.01874898984388889</v>
       </c>
       <c r="R7">
-        <v>19.54840011927</v>
+        <v>0.168740908595</v>
       </c>
       <c r="S7">
-        <v>1.102360864754017E-05</v>
+        <v>0.002306499337106202</v>
       </c>
       <c r="T7">
-        <v>1.102360864754016E-05</v>
+        <v>0.002306499337106202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.4290313333333</v>
+        <v>144.0595526666667</v>
       </c>
       <c r="H8">
-        <v>505.287094</v>
+        <v>432.178658</v>
       </c>
       <c r="I8">
-        <v>0.1221981451574502</v>
+        <v>0.9365648635832199</v>
       </c>
       <c r="J8">
-        <v>0.1221981451574501</v>
+        <v>0.9365648635832198</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N8">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q8">
-        <v>23758.15512481039</v>
+        <v>5.65846714934311</v>
       </c>
       <c r="R8">
-        <v>213823.3961232936</v>
+        <v>50.926204344088</v>
       </c>
       <c r="S8">
-        <v>0.1205779206569242</v>
+        <v>0.6961042081555704</v>
       </c>
       <c r="T8">
-        <v>0.1205779206569241</v>
+        <v>0.6961042081555705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.4290313333333</v>
+        <v>144.0595526666667</v>
       </c>
       <c r="H9">
-        <v>505.287094</v>
+        <v>432.178658</v>
       </c>
       <c r="I9">
-        <v>0.1221981451574502</v>
+        <v>0.9365648635832199</v>
       </c>
       <c r="J9">
-        <v>0.1221981451574501</v>
+        <v>0.9365648635832198</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N9">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q9">
-        <v>319.2420702795134</v>
+        <v>1.954648030432222</v>
       </c>
       <c r="R9">
-        <v>2873.178632515621</v>
+        <v>17.59183227389</v>
       </c>
       <c r="S9">
-        <v>0.001620224500526009</v>
+        <v>0.2404606554276494</v>
       </c>
       <c r="T9">
-        <v>0.001620224500526009</v>
+        <v>0.2404606554276494</v>
       </c>
     </row>
   </sheetData>
